--- a/testbuild/all-profiles.xlsx
+++ b/testbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/testbuild/all-profiles.xlsx
+++ b/testbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.1</t>
+    <t>1.4.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/testbuild/all-profiles.xlsx
+++ b/testbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.2</t>
+    <t>1.4.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/testbuild/all-profiles.xlsx
+++ b/testbuild/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.3</t>
+    <t>1.4.4</t>
   </si>
   <si>
     <t>Name</t>
